--- a/GIT.xlsx
+++ b/GIT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Nội dung chính</t>
   </si>
@@ -114,9 +114,6 @@
     <t>git reflog --online</t>
   </si>
   <si>
-    <t>1'</t>
-  </si>
-  <si>
     <t>Xóa bỏ một thiết lập nào đó</t>
   </si>
   <si>
@@ -169,6 +166,27 @@
   </si>
   <si>
     <t>git branch -m [old_name] [new_name]</t>
+  </si>
+  <si>
+    <t>Xóa bỏ liên kết remote</t>
+  </si>
+  <si>
+    <t>git remote rm origin</t>
+  </si>
+  <si>
+    <t>Kiểm tra remote đã được add vào hay chưa</t>
+  </si>
+  <si>
+    <t>git remote -v</t>
+  </si>
+  <si>
+    <t>8a</t>
+  </si>
+  <si>
+    <t>8b</t>
+  </si>
+  <si>
+    <t>1a</t>
   </si>
 </sst>
 </file>
@@ -532,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,13 +589,13 @@
     </row>
     <row r="3" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -672,153 +690,175 @@
       </c>
     </row>
     <row r="13" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="3">
-        <v>9</v>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="3">
-        <v>10</v>
+      <c r="C14" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C15" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C19" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C20" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="3"/>
+      <c r="C24" s="3">
+        <v>18</v>
+      </c>
       <c r="D24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" s="3">
+        <v>19</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+      <c r="D26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="3">
         <v>20</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="1">
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="1">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
         <v>22</v>
       </c>
     </row>

--- a/GIT.xlsx
+++ b/GIT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Nội dung chính</t>
   </si>
@@ -180,20 +180,71 @@
     <t>git remote -v</t>
   </si>
   <si>
-    <t>8a</t>
-  </si>
-  <si>
-    <t>8b</t>
-  </si>
-  <si>
-    <t>1a</t>
+    <t>NHÁNH TRONG GIT</t>
+  </si>
+  <si>
+    <t>CẤU HÌNH GIT</t>
+  </si>
+  <si>
+    <t>SAO CHÉP VÀ CẬP NHẬT THƯ MỤC GIT</t>
+  </si>
+  <si>
+    <t>TẠO VÀ ĐẨY THƯ MỤC GIT TỪ LOCAL LÊN GITHUB</t>
+  </si>
+  <si>
+    <t>GỘP NHÁNH TRONG GIT</t>
+  </si>
+  <si>
+    <t>NÂNG CAO</t>
+  </si>
+  <si>
+    <t>XỬ LÝ XUNG ĐỘT KHI GỘP</t>
+  </si>
+  <si>
+    <t>Xóa một nhánh trên remote</t>
+  </si>
+  <si>
+    <t>Xóa một nhánh cũ trên remote và đẩy nhánh mới thế vào vị trí nhánh cũ đó</t>
+  </si>
+  <si>
+    <t>git push origin :[old_branch_name] [branch_to_push]</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>COMMIT NÂNG CAO</t>
+  </si>
+  <si>
+    <t>Đẩy repo từ local lên và ghi đè repo đã có trên remote</t>
+  </si>
+  <si>
+    <t>git push [branch_name] -f</t>
+  </si>
+  <si>
+    <t>tạo commit mới nhưng gộp nội dung vào commit trước đó</t>
+  </si>
+  <si>
+    <t>git commit --amend --no-edit</t>
+  </si>
+  <si>
+    <t>git commit --amend</t>
+  </si>
+  <si>
+    <t>đổi thông điệp (message) của một commit gần đây nhất</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đổi thông điệp (message) của một commit nào đó </t>
+  </si>
+  <si>
+    <t>git rebase -I HEAD~n  với n là một số &gt;= 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,8 +274,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,6 +323,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -256,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -264,12 +350,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,23 +648,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="78" customWidth="1"/>
     <col min="5" max="5" width="112" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -576,290 +674,345 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="3">
+    <row r="2" spans="3:5" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C2" s="8">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="3" t="s">
+    <row r="4" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D5" s="3"/>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5" t="s">
+      <c r="E6" s="12"/>
+    </row>
+    <row r="8" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <v>4</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="D44" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C46" s="1">
         <v>6</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="D46" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C48" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="3">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="3">
-        <v>6</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="3">
-        <v>7</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="3">
-        <v>8</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="3">
-        <v>9</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="3">
-        <v>10</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="3">
-        <v>11</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="3">
-        <v>12</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="3">
-        <v>13</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="3">
-        <v>14</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="3">
-        <v>15</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="3">
-        <v>16</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="3">
-        <v>17</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="3">
-        <v>18</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="3">
-        <v>19</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="3"/>
-      <c r="D26" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="3">
-        <v>20</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="1">
-        <v>22</v>
+      <c r="D48" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
